--- a/burntdown_chart.xlsx
+++ b/burntdown_chart.xlsx
@@ -172,7 +172,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.345630554404788"/>
+          <c:y val="0.0341315273186595"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -221,6 +228,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
@@ -234,62 +244,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -347,6 +302,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
@@ -360,62 +318,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -623,6 +526,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -1217,16 +1152,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34964</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>17247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>642212</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>68047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1513,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/burntdown_chart.xlsx
+++ b/burntdown_chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2980" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>time spent</t>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burnt down chart</a:t>
+              <a:t>Burndown chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -383,11 +383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-709597808"/>
-        <c:axId val="-709585232"/>
+        <c:axId val="-1823691200"/>
+        <c:axId val="-1823802368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-709597808"/>
+        <c:axId val="-1823691200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-709585232"/>
+        <c:crossAx val="-1823802368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -454,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-709585232"/>
+        <c:axId val="-1823802368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="880.0"/>
@@ -514,7 +514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-709597808"/>
+        <c:crossAx val="-1823691200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,7 +1449,7 @@
   <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1493,7 @@
         <v>880</v>
       </c>
       <c r="E6">
-        <f>D6-C6</f>
+        <f t="shared" ref="E6:E11" si="0">D6-C6</f>
         <v>74</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>849</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
         <v>807</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>671</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>510</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>-510</v>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>436</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>-436</v>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
         <v>362</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E18" si="0">D12-C12</f>
+        <f t="shared" ref="E12:E18" si="1">D12-C12</f>
         <v>-362</v>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
         <v>288</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-288</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>214</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-214</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>140</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-140</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>66</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-66</v>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>-8</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>-82</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
